--- a/xlsx/南加州大学_intext.xlsx
+++ b/xlsx/南加州大学_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="444">
   <si>
     <t>南加州大学</t>
   </si>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%A1%E9%95%B7</t>
   </si>
   <si>
-    <t>校長</t>
+    <t>校长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E7%A7%91%E7%94%9F</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF</t>
   </si>
   <si>
-    <t>洛杉磯</t>
+    <t>洛杉矶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%8C%BA</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A3%E7%90%86%E6%9C%83</t>
   </si>
   <si>
-    <t>監理會</t>
+    <t>监理会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%A6%E7%94%B5%E5%BD%B1%E8%89%BA%E6%9C%AF%E5%AD%A6%E9%99%A2</t>
@@ -107,13 +107,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E4%BB%A3%E9%9B%9C%E8%AA%8C</t>
   </si>
   <si>
-    <t>時代雜誌</t>
+    <t>时代杂志</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E6%9E%97%E6%96%AF%E9%A0%93%E8%A9%95%E8%AB%96</t>
   </si>
   <si>
-    <t>普林斯頓評論</t>
+    <t>普林斯顿评论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%A4%A7%E5%AD%A6%E5%8D%8F%E4%BC%9A</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E8%B2%9D%E7%88%BE%E5%8C%96%E5%AD%B8%E7%8D%8E</t>
   </si>
   <si>
-    <t>諾貝爾化學獎</t>
+    <t>诺贝尔化学奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E7%A7%91%E5%AD%A6%E5%9F%BA%E9%87%91%E4%BC%9A</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%9C%9F%E5%AE%89%E5%85%A8%E9%83%A8</t>
   </si>
   <si>
-    <t>美國國土安全部</t>
+    <t>美国国土安全部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%A1%E5%8F%8B</t>
@@ -167,13 +167,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%AB%98%E7%AD%89%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>美國高等教育</t>
+    <t>美国高等教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E7%90%86%E5%AE%97</t>
   </si>
   <si>
-    <t>衛理宗</t>
+    <t>卫理宗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%98%E9%83%A1</t>
@@ -185,13 +185,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%88%BE%E7%81%A3</t>
   </si>
   <si>
-    <t>爾灣</t>
+    <t>尔湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>維吉尼亞州</t>
+    <t>维吉尼亚州</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Marina_del_Rey,_California</t>
@@ -203,19 +203,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E7%A7%91%E5%AD%B8%E7%A0%94%E7%A9%B6%E9%99%A2</t>
   </si>
   <si>
-    <t>資訊科學研究院</t>
+    <t>资讯科学研究院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E5%8A%A0%E7%B7%AC%E5%BA%A6</t>
   </si>
   <si>
-    <t>沙加緬度</t>
+    <t>沙加缅度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E5%BA%9C</t>
   </si>
   <si>
-    <t>華府</t>
+    <t>华府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%BD%95%E5%B8%83%E6%8B%89</t>
@@ -227,19 +227,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%B7%E4%BA%A4%E9%80%9A%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>上海交通大學</t>
+    <t>上海交通大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%AD%87%E7%88%BE%E5%95%86%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>馬歇爾商學院</t>
+    <t>马歇尔商学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%9C%B0%E7%89%99%E5%93%A5</t>
   </si>
   <si>
-    <t>聖地牙哥</t>
+    <t>圣地牙哥</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Trojan_Shrine</t>
@@ -257,13 +257,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E4%B8%B9%E4%BD%9B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>史丹佛大學</t>
+    <t>史丹佛大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF%E6%99%82%E5%A0%B1</t>
   </si>
   <si>
-    <t>洛杉磯時報</t>
+    <t>洛杉矶时报</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/George_Bovard</t>
@@ -293,13 +293,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>哈佛大學</t>
+    <t>哈佛大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E5%85%8B%E8%90%8A%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>柏克萊加州大學</t>
+    <t>柏克莱加州大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%9B%BC%E5%BC%8F%E5%BB%BA%E7%AD%91</t>
@@ -407,13 +407,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E9%9A%9B%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>星際大戰</t>
+    <t>星际大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7%E7%9B%A7%E5%8D%A1%E6%96%AF</t>
   </si>
   <si>
-    <t>喬治·盧卡斯</t>
+    <t>乔治·卢卡斯</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ben_Burtt</t>
@@ -425,7 +425,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E6%96%87%E8%A5%BF%E5%AF%86%E7%A2%BC</t>
   </si>
   <si>
-    <t>達文西密碼</t>
+    <t>达文西密码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%97%E4%BE%AF%E6%B4%BB</t>
@@ -437,13 +437,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%94%98%E6%AD%A3%E5%82%B3</t>
   </si>
   <si>
-    <t>阿甘正傳</t>
+    <t>阿甘正传</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E6%8B%94%C2%B7%E6%B9%9B%E7%B1%B3%E5%9F%BA%E6%96%AF</t>
   </si>
   <si>
-    <t>羅拔·湛米基斯</t>
+    <t>罗拔·湛米基斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E7%B1%B3%E5%88%A9%E5%8E%84%E6%96%AF</t>
@@ -455,13 +455,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E8%90%8A%E6%81%A9%C2%B7%E8%BE%9B%E6%A0%BC</t>
   </si>
   <si>
-    <t>布萊恩·辛格</t>
+    <t>布莱恩·辛格</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E7%89%B9%E6%AF%94%E5%B7%A5%E7%A8%8B%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>維特比工程學院</t>
+    <t>维特比工程学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E9%80%9A%E5%85%AC%E5%8F%B8</t>
@@ -485,7 +485,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%8E%92%E5%90%8D</t>
   </si>
   <si>
-    <t>大學排名</t>
+    <t>大学排名</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%A4%A7%E5%AD%A6%E5%AD%A6%E6%9C%AF%E6%8E%92%E5%90%8D</t>
@@ -503,13 +503,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E6%99%A4%E5%A3%AB%E9%AB%98%E7%AD%89%E6%95%99%E8%82%B2%E4%B8%96%E7%95%8C%E5%A4%A7%E5%AD%B8%E6%8E%92%E5%90%8D</t>
   </si>
   <si>
-    <t>泰晤士高等教育世界大學排名</t>
+    <t>泰晤士高等教育世界大学排名</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%96%B0%E8%81%9E%E8%88%87%E4%B8%96%E7%95%8C%E5%A0%B1%E5%B0%8E</t>
   </si>
   <si>
-    <t>美國新聞與世界報導</t>
+    <t>美国新闻与世界报导</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%B8%83%E6%96%AF</t>
@@ -521,7 +521,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E6%9C%88%E5%88%8A</t>
   </si>
   <si>
-    <t>華盛頓月刊</t>
+    <t>华盛顿月刊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BD%97%E9%87%8C%E8%BE%BE%E5%A4%A7%E5%AD%A6</t>
@@ -533,13 +533,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BB%BE%E7%9F%B3%E9%9B%9C%E8%AA%8C</t>
   </si>
   <si>
-    <t>滾石雜誌</t>
+    <t>滚石杂志</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%96%B0%E8%81%9E%E8%88%87%E4%B8%96%E7%95%8C%E5%A0%B1%E9%81%93</t>
   </si>
   <si>
-    <t>美國新聞與世界報道</t>
+    <t>美国新闻与世界报道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%A6%E5%8F%A4%E5%B0%94%E5%BE%B7%E6%B3%95%E5%AD%A6%E9%99%A2</t>
@@ -563,13 +563,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A7%91%E5%AD%B8%E4%BF%83%E9%80%B2%E6%9C%83</t>
   </si>
   <si>
-    <t>美國科學促進會</t>
+    <t>美国科学促进会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%93%B2%E5%AD%B8%E6%9C%83</t>
   </si>
   <si>
-    <t>美國哲學會</t>
+    <t>美国哲学会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%B7%A5%E7%A8%8B%E5%AD%A6%E9%99%A2</t>
@@ -581,13 +581,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E7%A7%91%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>美國國家科學院</t>
+    <t>美国国家科学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E8%B2%9D%E7%88%BE%E7%8D%8E</t>
   </si>
   <si>
-    <t>諾貝爾獎</t>
+    <t>诺贝尔奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BE%E7%81%B5%E5%A5%96</t>
@@ -611,13 +611,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E5%9C%8B%E5%A4%A7%E5%AD%B8%E9%AB%94%E8%82%B2%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>全國大學體育協會</t>
+    <t>全国大学体育协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E5%8D%81%E4%BA%8C%E6%A0%A1%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>太平洋十二校聯盟</t>
+    <t>太平洋十二校联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/UCLA</t>
@@ -629,13 +629,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>洛杉磯加利福尼亞大學</t>
+    <t>洛杉矶加利福尼亚大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%AF%8D%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>聖母大學</t>
+    <t>圣母大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%BC%8F%E8%B6%B3%E7%90%83</t>
@@ -653,55 +653,55 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B7%AF%E6%98%93%E7%B4%85%E9%9B%80</t>
   </si>
   <si>
-    <t>聖路易紅雀</t>
+    <t>圣路易红雀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%C2%B7%E9%BA%A5%E5%A5%8E%E7%88%BE</t>
   </si>
   <si>
-    <t>馬克·麥奎爾</t>
+    <t>马克·麦奎尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E9%9F%BF%E5%B0%BE%E8%9B%87</t>
   </si>
   <si>
-    <t>亞利桑那響尾蛇</t>
+    <t>亚利桑那响尾蛇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%8D%E8%BF%AA%C2%B7%E5%BC%B7%E6%A3%AE</t>
   </si>
   <si>
-    <t>藍迪·強森</t>
+    <t>蓝迪·强森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF%E7%B4%80%E5%BF%B5%E9%AB%94%E8%82%B2%E9%A4%A8</t>
   </si>
   <si>
-    <t>洛杉磯紀念體育館</t>
+    <t>洛杉矶纪念体育馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1932%E5%B9%B4%E5%A4%8F%E5%AD%A3%E5%A5%A7%E6%9E%97%E5%8C%B9%E5%85%8B%E9%81%8B%E5%8B%95%E6%9C%83</t>
   </si>
   <si>
-    <t>1932年夏季奧林匹克運動會</t>
+    <t>1932年夏季奥林匹克运动会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF%E9%81%93%E5%A5%87%E9%9A%8A</t>
   </si>
   <si>
-    <t>洛杉磯道奇隊</t>
+    <t>洛杉矶道奇队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%A4%AA%E5%B9%B3%E6%B4%8B%E9%90%B5%E8%B7%AF</t>
   </si>
   <si>
-    <t>南太平洋鐵路</t>
+    <t>南太平洋铁路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E8%BB%8A%E9%A0%AD</t>
   </si>
   <si>
-    <t>火車頭</t>
+    <t>火车头</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sigma_Phi_Epsilon</t>
@@ -731,19 +731,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AB%E7%91%B0%E7%9B%83</t>
   </si>
   <si>
-    <t>玫瑰盃</t>
+    <t>玫瑰杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E8%90%8A%E5%A1%A2</t>
   </si>
   <si>
-    <t>好萊塢</t>
+    <t>好莱坞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>牛津大學</t>
+    <t>牛津大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%B3%95%E5%B0%A4%E7%89%A9</t>
@@ -755,13 +755,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%84%B0%E5%AE%B6%E5%A5%B3%E5%84%AA</t>
   </si>
   <si>
-    <t>鄰家女優</t>
+    <t>邻家女优</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AD%94%E9%AC%BC%E5%89%8B%E6%98%9F</t>
   </si>
   <si>
-    <t>魔鬼剋星</t>
+    <t>魔鬼克星</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%95%E4%B8%9A%E7%94%9F_(%E7%94%B5%E5%BD%B1)</t>
@@ -779,7 +779,7 @@
     <t>https://zh.wikipedia.org/wiki/24_(%E9%9B%BB%E8%A6%96%E5%8A%87)</t>
   </si>
   <si>
-    <t>24 (電視劇)</t>
+    <t>24 (电视剧)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%98%E9%83%A1%E9%A3%8E%E4%BA%91</t>
@@ -791,7 +791,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E8%B6%8A%E6%AF%94%E4%BD%9B%E5%88%A9</t>
   </si>
   <si>
-    <t>飛越比佛利</t>
+    <t>飞越比佛利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8C%B6%E7%85%B2%E8%A1%A8%E5%93%A5</t>
@@ -815,19 +815,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%8B%99A</t>
   </si>
   <si>
-    <t>特務A</t>
+    <t>特务A</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%87%E7%95%B0%E6%9E%9C%E5%A5%B3%E5%AD%A9</t>
   </si>
   <si>
-    <t>奇異果女孩</t>
+    <t>奇异果女孩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%B8%E6%A0%A1%E5%8F%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>南加州大學校友列表</t>
+    <t>南加州大学校友列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E7%89%B9%C2%B7%E5%B0%BC%E5%85%8B%E6%9D%BE</t>
@@ -863,19 +863,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%91%E5%85%8B%C2%B7%E6%9C%AC%E5%BE%B7</t>
   </si>
   <si>
-    <t>傑克·本德</t>
+    <t>杰克·本德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E7%88%BE%C2%B7%E9%98%BF%E5%A7%86%E6%96%AF%E5%A3%AF</t>
   </si>
   <si>
-    <t>尼爾·阿姆斯壯</t>
+    <t>尼尔·阿姆斯壮</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E5%85%8B%C2%B7%E8%93%8B%E7%91%9E</t>
   </si>
   <si>
-    <t>法蘭克·蓋瑞</t>
+    <t>法兰克·盖瑞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
@@ -893,43 +893,43 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E5%A4%AA%E5%B9%B3%E6%B4%8B%E5%8D%81%E4%BA%8C%E6%A0%A1%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>Template talk-太平洋十二校聯盟</t>
+    <t>Template talk-太平洋十二校联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%B8%E6%9F%8F%E5%85%8B%E8%90%8A%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州大學柏克萊分校</t>
+    <t>加州大学柏克莱分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E9%87%91%E7%86%8A</t>
   </si>
   <si>
-    <t>加利福尼亞金熊</t>
+    <t>加利福尼亚金熊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%B2%A1%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>俄勒岡大學</t>
+    <t>俄勒冈大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%B2%A1%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>俄勒岡州立大學</t>
+    <t>俄勒冈州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>華盛頓大學</t>
+    <t>华盛顿大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>華盛頓州立大學</t>
+    <t>华盛顿州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%88%A9%E6%A1%91%E9%82%A3%E5%A4%A7%E5%AD%A6</t>
@@ -941,7 +941,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>亞利桑那州立大學</t>
+    <t>亚利桑那州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%A6%E6%B4%9B%E6%9D%89%E7%9F%B6%E5%88%86%E6%A0%A1</t>
@@ -959,7 +959,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%A4%A7%E5%AD%B8%E6%B3%A2%E5%BE%B7%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>科羅拉多大學波德分校</t>
+    <t>科罗拉多大学波德分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E4%BB%96%E5%A4%A7%E5%AD%A6</t>
@@ -971,13 +971,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A7%E5%AD%B8%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>美國大學協會</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>公立大學</t>
+    <t>公立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%A6</t>
@@ -995,7 +992,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%B8%E7%88%BE%E7%81%A3%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州大學爾灣分校</t>
+    <t>加州大学尔湾分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%A6%E5%9C%A3%E5%9C%B0%E4%BA%9A%E5%93%A5%E5%88%86%E6%A0%A1</t>
@@ -1013,7 +1010,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>科羅拉多大學</t>
+    <t>科罗拉多大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%90%E6%B2%BB%E4%BA%9A%E7%90%86%E5%B7%A5%E5%AD%A6%E9%99%A2</t>
@@ -1025,7 +1022,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AB%BE%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>伊利諾大學</t>
+    <t>伊利诺大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%BA%B3%E5%A4%A7%E5%AD%A6</t>
@@ -1055,7 +1052,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C%E8%98%AD%E5%A4%A7%E5%AD%B8%E5%AD%B8%E9%99%A2%E5%B8%82%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>馬里蘭大學學院市分校</t>
+    <t>马里兰大学学院市分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%A4%A7%E5%AD%A6</t>
@@ -1085,25 +1082,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>紐約州立大學</t>
+    <t>纽约州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8%E6%B0%B4%E7%89%9B%E5%9F%8E%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>紐約州立大學水牛城分校</t>
+    <t>纽约州立大学水牛城分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E6%BA%AA%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>石溪大學</t>
+    <t>石溪大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BE%85%E4%BE%86%E7%B4%8D%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>北卡羅來納大學</t>
+    <t>北卡罗来纳大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%A4%A7%E5%AD%A6%E6%95%99%E5%A0%82%E5%B1%B1%E5%88%86%E6%A0%A1</t>
@@ -1127,13 +1124,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%B9%E8%8C%B2%E5%A0%A1%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>匹茲堡大學</t>
+    <t>匹兹堡大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E6%B8%A1%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>普渡大學</t>
+    <t>普渡大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%A0%BC%E6%96%AF%E5%A4%A7%E5%AD%A6</t>
@@ -1145,13 +1142,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8%E5%A5%A7%E6%96%AF%E6%B1%80%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>德克薩斯州立大學奧斯汀分校</t>
+    <t>德克萨斯州立大学奥斯汀分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%B7%9E%E8%BE%B2%E5%B7%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>德州農工大學</t>
+    <t>德州农工大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E5%A4%A7%E5%AD%A6</t>
@@ -1163,9 +1160,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%A4%A7%E5%AD%A6</t>
   </si>
   <si>
-    <t>华盛顿大学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E8%BE%9B%E5%A4%A7%E5%AD%A6%E9%BA%A6%E8%BF%AA%E9%80%8A%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
@@ -1175,7 +1169,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>波士頓大學</t>
+    <t>波士顿大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%85%B0%E8%BF%AA%E6%96%AF%E5%A4%A7%E5%AD%A6</t>
@@ -1205,7 +1199,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E6%96%AF%E8%A5%BF%E5%84%B2%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>凱斯西儲大學</t>
+    <t>凯斯西储大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E5%A4%A7%E5%AD%A6</t>
@@ -1223,7 +1217,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%88%BE%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>康乃爾大學</t>
+    <t>康乃尔大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E5%85%8B%E5%A4%A7%E5%AD%A6</t>
@@ -1235,15 +1229,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E9%BB%98%E9%87%8C%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>埃默里大學</t>
+    <t>埃默里大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%A4%A7%E5%AD%A6</t>
   </si>
   <si>
-    <t>哈佛大学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E9%9C%8D%E6%99%AE%E9%87%91%E6%96%AF%E5%A4%A7%E5%AD%A6</t>
   </si>
   <si>
@@ -1283,19 +1274,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E6%96%AF%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>萊斯大學</t>
+    <t>莱斯大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B9%E6%96%AF%E7%89%B9%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>羅徹斯特大學</t>
+    <t>罗彻斯特大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E8%98%AD%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>杜蘭大學</t>
+    <t>杜兰大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8C%83%E5%BE%B7%E5%A0%A1%E5%A4%A7%E5%AD%A6</t>
@@ -1319,7 +1310,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E5%A4%A7%E5%AD%B8%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>加拿大大學列表</t>
+    <t>加拿大大学列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A6%E5%90%89%E5%B0%94%E5%A4%A7%E5%AD%A6</t>
@@ -1331,19 +1322,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%80%AB%E5%A4%9A%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>多倫多大學</t>
+    <t>多伦多大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A9%E4%B8%BB%E6%95%99%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>美國天主教大學</t>
+    <t>美国天主教大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E6%8B%89%E5%85%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>克拉克大學</t>
+    <t>克拉克大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E5%9F%8E%E5%A4%A7%E5%AD%A6</t>
@@ -6598,7 +6589,7 @@
         <v>317</v>
       </c>
       <c r="F169" t="s">
-        <v>318</v>
+        <v>34</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6624,10 +6615,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>318</v>
+      </c>
+      <c r="F170" t="s">
         <v>319</v>
-      </c>
-      <c r="F170" t="s">
-        <v>320</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6682,10 +6673,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>320</v>
+      </c>
+      <c r="F172" t="s">
         <v>321</v>
-      </c>
-      <c r="F172" t="s">
-        <v>322</v>
       </c>
       <c r="G172" t="n">
         <v>18</v>
@@ -6740,10 +6731,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>322</v>
+      </c>
+      <c r="F174" t="s">
         <v>323</v>
-      </c>
-      <c r="F174" t="s">
-        <v>324</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6769,10 +6760,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>324</v>
+      </c>
+      <c r="F175" t="s">
         <v>325</v>
-      </c>
-      <c r="F175" t="s">
-        <v>326</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6827,10 +6818,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>326</v>
+      </c>
+      <c r="F177" t="s">
         <v>327</v>
-      </c>
-      <c r="F177" t="s">
-        <v>328</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6856,10 +6847,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>328</v>
+      </c>
+      <c r="F178" t="s">
         <v>329</v>
-      </c>
-      <c r="F178" t="s">
-        <v>330</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6885,10 +6876,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>330</v>
+      </c>
+      <c r="F179" t="s">
         <v>331</v>
-      </c>
-      <c r="F179" t="s">
-        <v>332</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6943,10 +6934,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>332</v>
+      </c>
+      <c r="F181" t="s">
         <v>333</v>
-      </c>
-      <c r="F181" t="s">
-        <v>334</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6972,10 +6963,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>334</v>
+      </c>
+      <c r="F182" t="s">
         <v>335</v>
-      </c>
-      <c r="F182" t="s">
-        <v>336</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7001,10 +6992,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>336</v>
+      </c>
+      <c r="F183" t="s">
         <v>337</v>
-      </c>
-      <c r="F183" t="s">
-        <v>338</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7030,10 +7021,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>338</v>
+      </c>
+      <c r="F184" t="s">
         <v>339</v>
-      </c>
-      <c r="F184" t="s">
-        <v>340</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7059,10 +7050,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>340</v>
+      </c>
+      <c r="F185" t="s">
         <v>341</v>
-      </c>
-      <c r="F185" t="s">
-        <v>342</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7088,10 +7079,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>342</v>
+      </c>
+      <c r="F186" t="s">
         <v>343</v>
-      </c>
-      <c r="F186" t="s">
-        <v>344</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7117,10 +7108,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>344</v>
+      </c>
+      <c r="F187" t="s">
         <v>345</v>
-      </c>
-      <c r="F187" t="s">
-        <v>346</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7146,10 +7137,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>346</v>
+      </c>
+      <c r="F188" t="s">
         <v>347</v>
-      </c>
-      <c r="F188" t="s">
-        <v>348</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7175,10 +7166,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>348</v>
+      </c>
+      <c r="F189" t="s">
         <v>349</v>
-      </c>
-      <c r="F189" t="s">
-        <v>350</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7204,10 +7195,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>350</v>
+      </c>
+      <c r="F190" t="s">
         <v>351</v>
-      </c>
-      <c r="F190" t="s">
-        <v>352</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7233,10 +7224,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>352</v>
+      </c>
+      <c r="F191" t="s">
         <v>353</v>
-      </c>
-      <c r="F191" t="s">
-        <v>354</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7262,10 +7253,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>354</v>
+      </c>
+      <c r="F192" t="s">
         <v>355</v>
-      </c>
-      <c r="F192" t="s">
-        <v>356</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7291,10 +7282,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>356</v>
+      </c>
+      <c r="F193" t="s">
         <v>357</v>
-      </c>
-      <c r="F193" t="s">
-        <v>358</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7320,10 +7311,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>358</v>
+      </c>
+      <c r="F194" t="s">
         <v>359</v>
-      </c>
-      <c r="F194" t="s">
-        <v>360</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7349,10 +7340,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>360</v>
+      </c>
+      <c r="F195" t="s">
         <v>361</v>
-      </c>
-      <c r="F195" t="s">
-        <v>362</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7378,10 +7369,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>362</v>
+      </c>
+      <c r="F196" t="s">
         <v>363</v>
-      </c>
-      <c r="F196" t="s">
-        <v>364</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7407,10 +7398,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>364</v>
+      </c>
+      <c r="F197" t="s">
         <v>365</v>
-      </c>
-      <c r="F197" t="s">
-        <v>366</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7465,10 +7456,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>366</v>
+      </c>
+      <c r="F199" t="s">
         <v>367</v>
-      </c>
-      <c r="F199" t="s">
-        <v>368</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7494,10 +7485,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>368</v>
+      </c>
+      <c r="F200" t="s">
         <v>369</v>
-      </c>
-      <c r="F200" t="s">
-        <v>370</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7523,10 +7514,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>370</v>
+      </c>
+      <c r="F201" t="s">
         <v>371</v>
-      </c>
-      <c r="F201" t="s">
-        <v>372</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7552,10 +7543,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>372</v>
+      </c>
+      <c r="F202" t="s">
         <v>373</v>
-      </c>
-      <c r="F202" t="s">
-        <v>374</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7581,10 +7572,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
+        <v>374</v>
+      </c>
+      <c r="F203" t="s">
         <v>375</v>
-      </c>
-      <c r="F203" t="s">
-        <v>376</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7610,10 +7601,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
+        <v>376</v>
+      </c>
+      <c r="F204" t="s">
         <v>377</v>
-      </c>
-      <c r="F204" t="s">
-        <v>378</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7639,10 +7630,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
+        <v>378</v>
+      </c>
+      <c r="F205" t="s">
         <v>379</v>
-      </c>
-      <c r="F205" t="s">
-        <v>380</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7668,10 +7659,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F206" t="s">
-        <v>382</v>
+        <v>302</v>
       </c>
       <c r="G206" t="n">
         <v>2</v>
@@ -7697,10 +7688,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F207" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7726,10 +7717,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F208" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7755,10 +7746,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F209" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7784,10 +7775,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F210" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7813,10 +7804,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F211" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -7842,10 +7833,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F212" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -7871,10 +7862,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F213" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -7900,10 +7891,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F214" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -7929,10 +7920,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F215" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -7958,10 +7949,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F216" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -7987,10 +7978,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F217" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8016,10 +8007,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F218" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8045,10 +8036,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F219" t="s">
-        <v>408</v>
+        <v>92</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8074,10 +8065,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F220" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8103,10 +8094,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F221" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8132,10 +8123,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F222" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8161,10 +8152,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F223" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8190,10 +8181,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F224" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8219,10 +8210,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F225" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8248,10 +8239,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F226" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8277,10 +8268,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F227" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8335,10 +8326,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F229" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8364,10 +8355,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F230" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8393,10 +8384,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F231" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8422,10 +8413,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F232" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8451,10 +8442,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F233" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8480,10 +8471,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F234" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8509,10 +8500,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F235" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8538,10 +8529,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F236" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -8567,10 +8558,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F237" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8596,10 +8587,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F238" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -8625,10 +8616,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F239" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
